--- a/biology/Botanique/Fargesia/Fargesia.xlsx
+++ b/biology/Botanique/Fargesia/Fargesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fargesia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae[1], originaire de Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fargesia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de Chine.
 Ce genre regroupe des espèces de bambous poussant en bosquets, originaires des forêts de conifères de l'est et de l'ouest de la Chine.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Fargesia, a été forgé par Adrien Franchet en l'honneur du R.P. Farges, missionnaire français en Chine qui collecta les premiers spécimens de ces plantes.
 Son synonyme Borinda doit son nom au botaniste irlandais Norman Loftus Bor (1893-1972).
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos :
 Borinda Stapleton ;
 Sinarundinaria Nakai ;
 Thamnocalamus Munro.</t>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre regroupe plus d'une centaine d'espèces, dont selon World Checklist of Selected Plant Families (WCSP)  (16 septembre 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre regroupe plus d'une centaine d'espèces, dont selon World Checklist of Selected Plant Families (WCSP)  (16 septembre 2016) :
 Fargesia acuticontracta T.P.Yi (1988)
 Fargesia adpressa T.P.Yi (1985)
 Fargesia alatovaginata T.P.Yi &amp; J.Y.Shi (2005)
@@ -695,7 +713,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fargesia dracocephala 'Rufa' (à ne pas confondre avec l'espèce Fargesia rufa) est un petit bambou (2,5 m environ), non traçant. Comparable au Fargesia murialae mais plus petit, plus rustique (-30 °C), il s'accommode d'une plantation en pot.
 Fargesia robusta 'Pingwu' est un bambou moyen (3 m × 3 m environ), non traçant, rustique (-20 °C) et qui supporte le soleil direct (cette variété est d'ailleurs l'une des seules dans ce cas, sous réserve de conserver un sol frais).
